--- a/dataset_v1/task_sheet_answers/MaturityDate/6_MaturityDate/6_MaturityDate_gt1.xlsx
+++ b/dataset_v1/task_sheet_answers/MaturityDate/6_MaturityDate/6_MaturityDate_gt1.xlsx
@@ -1,65 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ActionTransformer\Excel_data\example_sheets_part1\task_sheet_answers\MaturityDate\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65C525F-3FD9-4F2A-AD68-AA914CC827FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B5B8E41C-39E9-4DEA-AD00-C7A2C9FD92DC}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$10</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Sheet1'!$A$1:$B$10</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Loan Issue Date</t>
-  </si>
-  <si>
-    <t>Length of Loan in Days</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="2"/>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -75,31 +53,91 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="3">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -399,109 +437,115 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185F3D45-C4B7-4992-B433-4B2B9543F874}">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="1">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B10"/>
+      <selection activeCell="A1" sqref="A1:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="2" width="17.109375"/>
+    <col customWidth="1" max="2" min="2" style="2" width="21.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>Loan Issue Date</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>Length of Loan in Days</t>
+        </is>
+      </c>
+    </row>
+    <row hidden="1" r="2" s="2">
+      <c r="A2" s="1" t="n">
         <v>40437</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="0" t="n">
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>40521</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0" t="n">
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row hidden="1" r="4" s="2">
+      <c r="A4" s="1" t="n">
         <v>40548</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0" t="n">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row hidden="1" r="5" s="2">
+      <c r="A5" s="1" t="n">
         <v>40431</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>40534</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0" t="n">
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row hidden="1" r="7" s="2">
+      <c r="A7" s="1" t="n">
         <v>40468</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0" t="n">
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row hidden="1" r="8" s="2">
+      <c r="A8" s="1" t="n">
         <v>40555</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0" t="n">
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row hidden="1" r="9" s="2">
+      <c r="A9" s="1" t="n">
         <v>40439</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="0" t="n">
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row hidden="1" r="10" s="2">
+      <c r="A10" s="1" t="n">
         <v>40426</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0" t="n">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B10" xr:uid="{185F3D45-C4B7-4992-B433-4B2B9543F874}">
+  <autoFilter ref="A1:B10">
     <filterColumn colId="0">
       <filters>
-        <dateGroupItem year="2010" month="12" dateTimeGrouping="month"/>
+        <dateGroupItem dateTimeGrouping="month" month="12" year="2010"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>